--- a/m1/u1/ejercicios/20191028/Funciones lógicas/taller-de-funciones-si.xlsx
+++ b/m1/u1/ejercicios/20191028/Funciones lógicas/taller-de-funciones-si.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\Google Drive\Cursos\Excel\Funciones lógicas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndresRamos\Documents\poo\m1\u1\ejercicios\20191028\Funciones lógicas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="7575" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TALLER A" sheetId="1" r:id="rId1"/>
@@ -120,6 +120,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="169" formatCode="#,##0\ &quot;€&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -283,6 +287,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,8 +325,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>751233</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>140390</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -322,8 +335,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5713758" y="178490"/>
-          <a:ext cx="4943475" cy="2173357"/>
+          <a:off x="5846280" y="178490"/>
+          <a:ext cx="4943475" cy="2198619"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1866,12 +1879,13 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1907,12 +1921,24 @@
       <c r="C2" s="4">
         <v>60</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4">
+        <f>IF(C2&gt;50,B$10,B$11)</f>
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="str">
+        <f>IF(B2=1,"SI","")</f>
+        <v>SI</v>
+      </c>
+      <c r="F2" s="4" t="str">
+        <f>IF(E2="SI","NO","SI")</f>
+        <v>NO</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>IF(C2&gt;100,"VIAJE A PARIS","OTRA VEZ SERA")</f>
+        <v>OTRA VEZ SERA</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1922,12 +1948,24 @@
       <c r="C3" s="4">
         <v>150</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D8" si="0">IF(C3&gt;50,B$10,B$11)</f>
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="str">
+        <f t="shared" ref="E3:E11" si="1">IF(B3=1,"SI","")</f>
+        <v/>
+      </c>
+      <c r="F3" s="4" t="str">
+        <f t="shared" ref="F3:F11" si="2">IF(E3="SI","NO","SI")</f>
+        <v>SI</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G8" si="3">IF(C3&gt;100,"VIAJE A PARIS","OTRA VEZ SERA")</f>
+        <v>VIAJE A PARIS</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1937,12 +1975,24 @@
       <c r="C4" s="4">
         <v>120</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F4" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SI</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>VIAJE A PARIS</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1952,12 +2002,24 @@
       <c r="C5" s="4">
         <v>30</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SI</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OTRA VEZ SERA</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -1967,12 +2029,24 @@
       <c r="C6" s="4">
         <v>90</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>SI</v>
+      </c>
+      <c r="F6" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>NO</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OTRA VEZ SERA</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1982,12 +2056,24 @@
       <c r="C7" s="4">
         <v>120</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F7" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SI</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>VIAJE A PARIS</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1997,10 +2083,22 @@
       <c r="C8" s="4">
         <v>60</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="D8" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F8" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>SI</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>OTRA VEZ SERA</v>
+      </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -2009,8 +2107,11 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F9" s="4"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2022,8 +2123,11 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F10" s="4"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2035,8 +2139,11 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E11" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="F11" s="4"/>
       <c r="G11" s="5"/>
     </row>
   </sheetData>
@@ -2051,7 +2158,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2129,34 +2236,88 @@
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="B4" s="4">
+        <f>IF(B3&gt;80,1500,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" ref="C4:G4" si="0">IF(C3&gt;80,1500,0)</f>
+        <v>1500</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="B5" s="4" t="str">
+        <f>IF(B3&gt;=120,"AGENDA","RELOJ")</f>
+        <v>RELOJ</v>
+      </c>
+      <c r="C5" s="4" t="str">
+        <f t="shared" ref="C5:G5" si="1">IF(C3&gt;=120,"AGENDA","RELOJ")</f>
+        <v>AGENDA</v>
+      </c>
+      <c r="D5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>AGENDA</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RELOJ</v>
+      </c>
+      <c r="F5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>RELOJ</v>
+      </c>
+      <c r="G5" s="4" t="str">
+        <f t="shared" si="1"/>
+        <v>AGENDA</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="B6" s="15">
+        <f>IF(B5="AGENDA",180,60)</f>
+        <v>60</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" ref="C6:G6" si="2">IF(C5="AGENDA",180,60)</f>
+        <v>180</v>
+      </c>
+      <c r="D6" s="15">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="E6" s="15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G6" s="15">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,10 +2330,13 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -2195,64 +2359,148 @@
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="15">
+        <f>IF(A2="MERCEDES 321",15060,7230)</f>
+        <v>15060</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>IF(B2=15060,"APLAZADO","AL CONTADO")</f>
+        <v>APLAZADO</v>
+      </c>
+      <c r="D2" s="14" t="str">
+        <f>IF(C2="AL CONTADO",B2*15%,"")</f>
+        <v/>
+      </c>
+      <c r="E2" s="16">
+        <f>IF(D2="",B2,B2-D2)</f>
+        <v>15060</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="B3" s="15">
+        <f t="shared" ref="B3:B8" si="0">IF(A3="MERCEDES 321",15060,7230)</f>
+        <v>7230</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C8" si="1">IF(B3=15060,"APLAZADO","AL CONTADO")</f>
+        <v>AL CONTADO</v>
+      </c>
+      <c r="D3" s="14">
+        <f t="shared" ref="D3:D8" si="2">IF(C3="AL CONTADO",B3*15%,"")</f>
+        <v>1084.5</v>
+      </c>
+      <c r="E3" s="16">
+        <f t="shared" ref="E3:E8" si="3">IF(D3="",B3,B3-D3)</f>
+        <v>6145.5</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="B4" s="15">
+        <f t="shared" si="0"/>
+        <v>7230</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AL CONTADO</v>
+      </c>
+      <c r="D4" s="14">
+        <f t="shared" si="2"/>
+        <v>1084.5</v>
+      </c>
+      <c r="E4" s="16">
+        <f t="shared" si="3"/>
+        <v>6145.5</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="B5" s="15">
+        <f t="shared" si="0"/>
+        <v>7230</v>
+      </c>
+      <c r="C5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AL CONTADO</v>
+      </c>
+      <c r="D5" s="14">
+        <f t="shared" si="2"/>
+        <v>1084.5</v>
+      </c>
+      <c r="E5" s="16">
+        <f t="shared" si="3"/>
+        <v>6145.5</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="B6" s="15">
+        <f t="shared" si="0"/>
+        <v>15060</v>
+      </c>
+      <c r="C6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>APLAZADO</v>
+      </c>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E6" s="16">
+        <f t="shared" si="3"/>
+        <v>15060</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="B7" s="15">
+        <f t="shared" si="0"/>
+        <v>7230</v>
+      </c>
+      <c r="C7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>AL CONTADO</v>
+      </c>
+      <c r="D7" s="14">
+        <f t="shared" si="2"/>
+        <v>1084.5</v>
+      </c>
+      <c r="E7" s="16">
+        <f t="shared" si="3"/>
+        <v>6145.5</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="B8" s="15">
+        <f t="shared" si="0"/>
+        <v>15060</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>APLAZADO</v>
+      </c>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" s="16">
+        <f t="shared" si="3"/>
+        <v>15060</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2263,15 +2511,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C7" sqref="C7:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -2298,7 +2547,10 @@
       <c r="C2" s="13">
         <v>150000</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="13" t="str">
+        <f>IF(A2*B2=C2,"MUY BIEN","DEDIQUESE A OTRA COSA")</f>
+        <v>MUY BIEN</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
@@ -2310,7 +2562,10 @@
       <c r="C3" s="13">
         <v>3400</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="13" t="str">
+        <f t="shared" ref="D3:D5" si="0">IF(A3*B3=C3,"MUY BIEN","DEDIQUESE A OTRA COSA")</f>
+        <v>DEDIQUESE A OTRA COSA</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
@@ -2322,7 +2577,10 @@
       <c r="C4" s="13">
         <v>650</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>DEDIQUESE A OTRA COSA</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
@@ -2334,7 +2592,34 @@
       <c r="C5" s="13">
         <v>2500</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>MUY BIEN</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>A2*B2</f>
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f t="shared" ref="C8:C10" si="1">A3*B3</f>
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
